--- a/ExcelData/Data.xlsx
+++ b/ExcelData/Data.xlsx
@@ -1,38 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prudzinski\Desktop\szablony baz danych\Python streamlit\Statystyki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paweł\Desktop\Github\Projekty\Python-streamlit\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37633890-6698-4A54-B316-B74D54E66F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C4D201-51B3-4117-8FA6-C974CA8B08EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WeekNumber" sheetId="1" r:id="rId1"/>
     <sheet name="Budget" sheetId="2" r:id="rId2"/>
     <sheet name="ShiftCalc" sheetId="3" r:id="rId3"/>
-    <sheet name="Obliczenia" sheetId="4" r:id="rId4"/>
-    <sheet name="ShiftSystem" sheetId="5" r:id="rId5"/>
-    <sheet name="People" sheetId="6" r:id="rId6"/>
+    <sheet name="ShiftSystem" sheetId="5" r:id="rId4"/>
+    <sheet name="People" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -40,15 +30,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
-  <si>
-    <t>Zmiany na dzień roboczy</t>
-  </si>
-  <si>
-    <t>Zerówki</t>
-  </si>
-  <si>
-    <t>Remonty</t>
-  </si>
   <si>
     <t>FirstLane</t>
   </si>
@@ -75,6 +56,15 @@
   </si>
   <si>
     <t>Holidays</t>
+  </si>
+  <si>
+    <t>Shifts on working day</t>
+  </si>
+  <si>
+    <t>Renovations</t>
+  </si>
+  <si>
+    <t>Breakes</t>
   </si>
 </sst>
 </file>
@@ -252,10 +242,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -279,26 +268,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -316,28 +295,107 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="33">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
       </border>
     </dxf>
     <dxf>
@@ -436,6 +494,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -443,101 +510,22 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -969,13 +957,13 @@
     <tableColumn id="3" xr3:uid="{3ABB1B72-0725-4A55-90C0-C930D002FC37}" name="Weekend" dataDxfId="17"/>
     <tableColumn id="4" xr3:uid="{4DEAF60C-D9BB-4B94-A1E8-1BA713210418}" name="Holidays" dataDxfId="16"/>
     <tableColumn id="5" xr3:uid="{605D6527-FDFE-4AF9-89F2-5C7ED9985AC8}" name="FirstLane" dataDxfId="15">
-      <calculatedColumnFormula>IF(ShiftSystem!B3=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!B19)*Obliczenia!B35-Obliczenia!B3</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ShiftSystem!B3=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!J19)*ShiftSystem!J35-ShiftSystem!J3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{BD32EC8D-3223-4524-9421-AF9D3925F9E1}" name="SecondLane" dataDxfId="14">
-      <calculatedColumnFormula>IF(ShiftSystem!C3=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!C19)*Obliczenia!C35-Obliczenia!C3</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ShiftSystem!C3=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!K19)*ShiftSystem!K35-ShiftSystem!K3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{2678D105-B60A-4DE3-B4AD-0FB81AC64EC7}" name="ThirdLane" dataDxfId="13">
-      <calculatedColumnFormula>IF(ShiftSystem!D3=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!D19)*Obliczenia!D35-Obliczenia!D3</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(ShiftSystem!D3=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!L19)*ShiftSystem!L35-ShiftSystem!L3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -983,8 +971,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{16DD51EA-8AC0-45BA-A670-5EB304DF552D}" name="Zerówki" displayName="Zerówki" ref="A2:D14" totalsRowShown="0">
-  <autoFilter ref="A2:D14" xr:uid="{16DD51EA-8AC0-45BA-A670-5EB304DF552D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0136169F-039A-4FE6-A5B2-46A7F860E1EB}" name="LiczbaZmian" displayName="LiczbaZmian" ref="A1:D13" totalsRowShown="0">
+  <autoFilter ref="A1:D13" xr:uid="{0136169F-039A-4FE6-A5B2-46A7F860E1EB}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9E253543-50D3-4194-810A-C8F8002B386C}" name="Month"/>
+    <tableColumn id="2" xr3:uid="{AFB5EDA0-751D-4363-8C51-2201200387F1}" name="FirstLane"/>
+    <tableColumn id="3" xr3:uid="{A1C2D772-114B-4600-BA72-28017DB3A2C1}" name="SecondLane"/>
+    <tableColumn id="4" xr3:uid="{5B05D4C9-CD79-4B10-A7CF-07457D6A72DA}" name="ThirdLane"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{16DD51EA-8AC0-45BA-A670-5EB304DF552D}" name="Zerówki" displayName="Zerówki" ref="I2:L14" totalsRowShown="0">
+  <autoFilter ref="I2:L14" xr:uid="{16DD51EA-8AC0-45BA-A670-5EB304DF552D}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{74590B84-0065-469F-983B-359B3CE7F168}" name="Month"/>
     <tableColumn id="2" xr3:uid="{3B19EFF6-CAE4-4CC2-91F3-60B06965FC73}" name="FirstLane"/>
@@ -995,22 +996,22 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F4BFD975-FF2C-4D24-857E-980E9D1819FB}" name="Remonty" displayName="Remonty" ref="A18:D30" totalsRowShown="0" tableBorderDxfId="12">
-  <autoFilter ref="A18:D30" xr:uid="{F4BFD975-FF2C-4D24-857E-980E9D1819FB}"/>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F4BFD975-FF2C-4D24-857E-980E9D1819FB}" name="Remonty" displayName="Remonty" ref="I18:L30" totalsRowShown="0" tableBorderDxfId="4">
+  <autoFilter ref="I18:L30" xr:uid="{F4BFD975-FF2C-4D24-857E-980E9D1819FB}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E73424A8-FE8E-430B-8D1C-3E0F3A271CB5}" name="Month" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{7128108B-8C42-4C83-BF4F-7C1821A51540}" name="FirstLane" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{E57B7F19-839A-40F3-8753-9455F605310C}" name="SecondLane" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{8EF779D9-5644-408D-AC27-C0E9BD1BE397}" name="ThirdLane" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{E73424A8-FE8E-430B-8D1C-3E0F3A271CB5}" name="Month" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{7128108B-8C42-4C83-BF4F-7C1821A51540}" name="FirstLane" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{E57B7F19-839A-40F3-8753-9455F605310C}" name="SecondLane" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{8EF779D9-5644-408D-AC27-C0E9BD1BE397}" name="ThirdLane" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3D3AB085-7E3D-4C31-AD81-5B4284DDD1E2}" name="ZmianyNaDzien" displayName="ZmianyNaDzien" ref="A34:D46" totalsRowShown="0">
-  <autoFilter ref="A34:D46" xr:uid="{3D3AB085-7E3D-4C31-AD81-5B4284DDD1E2}"/>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3D3AB085-7E3D-4C31-AD81-5B4284DDD1E2}" name="ZmianyNaDzien" displayName="ZmianyNaDzien" ref="I34:L46" totalsRowShown="0">
+  <autoFilter ref="I34:L46" xr:uid="{3D3AB085-7E3D-4C31-AD81-5B4284DDD1E2}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9F2D698D-8895-46AC-A001-A39B62BF9664}" name="Month"/>
     <tableColumn id="2" xr3:uid="{18718FD3-ADDA-493D-A07B-C4003F470A43}" name="FirstLane">
@@ -1027,27 +1028,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0136169F-039A-4FE6-A5B2-46A7F860E1EB}" name="LiczbaZmian" displayName="LiczbaZmian" ref="A1:D13" totalsRowShown="0">
-  <autoFilter ref="A1:D13" xr:uid="{0136169F-039A-4FE6-A5B2-46A7F860E1EB}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9E253543-50D3-4194-810A-C8F8002B386C}" name="Month"/>
-    <tableColumn id="2" xr3:uid="{AFB5EDA0-751D-4363-8C51-2201200387F1}" name="FirstLane"/>
-    <tableColumn id="3" xr3:uid="{A1C2D772-114B-4600-BA72-28017DB3A2C1}" name="SecondLane"/>
-    <tableColumn id="4" xr3:uid="{5B05D4C9-CD79-4B10-A7CF-07457D6A72DA}" name="ThirdLane"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49593249-F2F9-45E8-9364-82ED38D472F6}" name="Tabela3" displayName="Tabela3" ref="A1:D13" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49593249-F2F9-45E8-9364-82ED38D472F6}" name="Tabela3" displayName="Tabela3" ref="A1:D13" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A1:D13" xr:uid="{49593249-F2F9-45E8-9364-82ED38D472F6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{31CA9041-FA4F-43E2-8C68-CB67167F0D94}" name="Month" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{494843BB-4AF1-460C-9546-3240DCE8A75F}" name="FirstLane" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{57E77FBA-54F3-4C2A-8373-3D2EAA2AB5E8}" name="SecondLane" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{759F830D-AE12-4D35-8C17-98BD536F8475}" name="ThirdLane" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{31CA9041-FA4F-43E2-8C68-CB67167F0D94}" name="Month" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{494843BB-4AF1-460C-9546-3240DCE8A75F}" name="FirstLane" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{57E77FBA-54F3-4C2A-8373-3D2EAA2AB5E8}" name="SecondLane" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{759F830D-AE12-4D35-8C17-98BD536F8475}" name="ThirdLane" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1327,17 +1315,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44927</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <f>WEEKNUM(A2,2)-1</f>
         <v>0</v>
       </c>
@@ -1346,7 +1334,7 @@
       <c r="A3" s="1">
         <v>44928</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <f t="shared" ref="B3:B66" si="0">WEEKNUM(A3,2)-1</f>
         <v>1</v>
       </c>
@@ -1355,7 +1343,7 @@
       <c r="A4" s="1">
         <v>44929</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1364,7 +1352,7 @@
       <c r="A5" s="1">
         <v>44930</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1373,7 +1361,7 @@
       <c r="A6" s="1">
         <v>44931</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1382,7 +1370,7 @@
       <c r="A7" s="1">
         <v>44932</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1391,7 +1379,7 @@
       <c r="A8" s="1">
         <v>44933</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1400,7 +1388,7 @@
       <c r="A9" s="1">
         <v>44934</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1409,7 +1397,7 @@
       <c r="A10" s="1">
         <v>44935</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1418,7 +1406,7 @@
       <c r="A11" s="1">
         <v>44936</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1427,7 +1415,7 @@
       <c r="A12" s="1">
         <v>44937</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1436,7 +1424,7 @@
       <c r="A13" s="1">
         <v>44938</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1445,7 +1433,7 @@
       <c r="A14" s="1">
         <v>44939</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1454,7 +1442,7 @@
       <c r="A15" s="1">
         <v>44940</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1463,7 +1451,7 @@
       <c r="A16" s="1">
         <v>44941</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1472,7 +1460,7 @@
       <c r="A17" s="1">
         <v>44942</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1481,7 +1469,7 @@
       <c r="A18" s="1">
         <v>44943</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1490,7 +1478,7 @@
       <c r="A19" s="1">
         <v>44944</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1499,7 +1487,7 @@
       <c r="A20" s="1">
         <v>44945</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1508,7 +1496,7 @@
       <c r="A21" s="1">
         <v>44946</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1517,7 +1505,7 @@
       <c r="A22" s="1">
         <v>44947</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1526,7 +1514,7 @@
       <c r="A23" s="1">
         <v>44948</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1535,7 +1523,7 @@
       <c r="A24" s="1">
         <v>44949</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1544,7 +1532,7 @@
       <c r="A25" s="1">
         <v>44950</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1553,7 +1541,7 @@
       <c r="A26" s="1">
         <v>44951</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1562,7 +1550,7 @@
       <c r="A27" s="1">
         <v>44952</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1571,7 +1559,7 @@
       <c r="A28" s="1">
         <v>44953</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1580,7 +1568,7 @@
       <c r="A29" s="1">
         <v>44954</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1589,7 +1577,7 @@
       <c r="A30" s="1">
         <v>44955</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1598,7 +1586,7 @@
       <c r="A31" s="1">
         <v>44956</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1607,7 +1595,7 @@
       <c r="A32" s="1">
         <v>44957</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1616,7 +1604,7 @@
       <c r="A33" s="1">
         <v>44958</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1625,7 +1613,7 @@
       <c r="A34" s="1">
         <v>44959</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1634,7 +1622,7 @@
       <c r="A35" s="1">
         <v>44960</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1643,7 +1631,7 @@
       <c r="A36" s="1">
         <v>44961</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1652,7 +1640,7 @@
       <c r="A37" s="1">
         <v>44962</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1661,7 +1649,7 @@
       <c r="A38" s="1">
         <v>44963</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1670,7 +1658,7 @@
       <c r="A39" s="1">
         <v>44964</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1679,7 +1667,7 @@
       <c r="A40" s="1">
         <v>44965</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1688,7 +1676,7 @@
       <c r="A41" s="1">
         <v>44966</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1697,7 +1685,7 @@
       <c r="A42" s="1">
         <v>44967</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1706,7 +1694,7 @@
       <c r="A43" s="1">
         <v>44968</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1715,7 +1703,7 @@
       <c r="A44" s="1">
         <v>44969</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1724,7 +1712,7 @@
       <c r="A45" s="1">
         <v>44970</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1733,7 +1721,7 @@
       <c r="A46" s="1">
         <v>44971</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1742,7 +1730,7 @@
       <c r="A47" s="1">
         <v>44972</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1751,7 +1739,7 @@
       <c r="A48" s="1">
         <v>44973</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1760,7 +1748,7 @@
       <c r="A49" s="1">
         <v>44974</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1769,7 +1757,7 @@
       <c r="A50" s="1">
         <v>44975</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1778,7 +1766,7 @@
       <c r="A51" s="1">
         <v>44976</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1787,7 +1775,7 @@
       <c r="A52" s="1">
         <v>44977</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1796,7 +1784,7 @@
       <c r="A53" s="1">
         <v>44978</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1805,7 +1793,7 @@
       <c r="A54" s="1">
         <v>44979</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1814,7 +1802,7 @@
       <c r="A55" s="1">
         <v>44980</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1823,7 +1811,7 @@
       <c r="A56" s="1">
         <v>44981</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1832,7 +1820,7 @@
       <c r="A57" s="1">
         <v>44982</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1841,7 +1829,7 @@
       <c r="A58" s="1">
         <v>44983</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1850,7 +1838,7 @@
       <c r="A59" s="1">
         <v>44984</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1859,7 +1847,7 @@
       <c r="A60" s="1">
         <v>44985</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1868,7 +1856,7 @@
       <c r="A61" s="1">
         <v>44986</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1877,7 +1865,7 @@
       <c r="A62" s="1">
         <v>44987</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1886,7 +1874,7 @@
       <c r="A63" s="1">
         <v>44988</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1895,7 +1883,7 @@
       <c r="A64" s="1">
         <v>44989</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1904,7 +1892,7 @@
       <c r="A65" s="1">
         <v>44990</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1913,7 +1901,7 @@
       <c r="A66" s="1">
         <v>44991</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1922,7 +1910,7 @@
       <c r="A67" s="1">
         <v>44992</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67">
         <f t="shared" ref="B67:B130" si="1">WEEKNUM(A67,2)-1</f>
         <v>10</v>
       </c>
@@ -1931,7 +1919,7 @@
       <c r="A68" s="1">
         <v>44993</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1940,7 +1928,7 @@
       <c r="A69" s="1">
         <v>44994</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1949,7 +1937,7 @@
       <c r="A70" s="1">
         <v>44995</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1958,7 +1946,7 @@
       <c r="A71" s="1">
         <v>44996</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1967,7 +1955,7 @@
       <c r="A72" s="1">
         <v>44997</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1976,7 +1964,7 @@
       <c r="A73" s="1">
         <v>44998</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -1985,7 +1973,7 @@
       <c r="A74" s="1">
         <v>44999</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -1994,7 +1982,7 @@
       <c r="A75" s="1">
         <v>45000</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -2003,7 +1991,7 @@
       <c r="A76" s="1">
         <v>45001</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -2012,7 +2000,7 @@
       <c r="A77" s="1">
         <v>45002</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -2021,7 +2009,7 @@
       <c r="A78" s="1">
         <v>45003</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -2030,7 +2018,7 @@
       <c r="A79" s="1">
         <v>45004</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -2039,7 +2027,7 @@
       <c r="A80" s="1">
         <v>45005</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -2048,7 +2036,7 @@
       <c r="A81" s="1">
         <v>45006</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -2057,7 +2045,7 @@
       <c r="A82" s="1">
         <v>45007</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -2066,7 +2054,7 @@
       <c r="A83" s="1">
         <v>45008</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -2075,7 +2063,7 @@
       <c r="A84" s="1">
         <v>45009</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -2084,7 +2072,7 @@
       <c r="A85" s="1">
         <v>45010</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -2093,7 +2081,7 @@
       <c r="A86" s="1">
         <v>45011</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -2102,7 +2090,7 @@
       <c r="A87" s="1">
         <v>45012</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -2111,7 +2099,7 @@
       <c r="A88" s="1">
         <v>45013</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -2120,7 +2108,7 @@
       <c r="A89" s="1">
         <v>45014</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -2129,7 +2117,7 @@
       <c r="A90" s="1">
         <v>45015</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -2138,7 +2126,7 @@
       <c r="A91" s="1">
         <v>45016</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -2147,7 +2135,7 @@
       <c r="A92" s="1">
         <v>45017</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -2156,7 +2144,7 @@
       <c r="A93" s="1">
         <v>45018</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -2165,7 +2153,7 @@
       <c r="A94" s="1">
         <v>45019</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -2174,7 +2162,7 @@
       <c r="A95" s="1">
         <v>45020</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -2183,7 +2171,7 @@
       <c r="A96" s="1">
         <v>45021</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -2192,7 +2180,7 @@
       <c r="A97" s="1">
         <v>45022</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -2201,7 +2189,7 @@
       <c r="A98" s="1">
         <v>45023</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -2210,7 +2198,7 @@
       <c r="A99" s="1">
         <v>45024</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -2219,7 +2207,7 @@
       <c r="A100" s="1">
         <v>45025</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -2228,7 +2216,7 @@
       <c r="A101" s="1">
         <v>45026</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -2237,7 +2225,7 @@
       <c r="A102" s="1">
         <v>45027</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -2246,7 +2234,7 @@
       <c r="A103" s="1">
         <v>45028</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -2255,7 +2243,7 @@
       <c r="A104" s="1">
         <v>45029</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -2264,7 +2252,7 @@
       <c r="A105" s="1">
         <v>45030</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -2273,7 +2261,7 @@
       <c r="A106" s="1">
         <v>45031</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -2282,7 +2270,7 @@
       <c r="A107" s="1">
         <v>45032</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -2291,7 +2279,7 @@
       <c r="A108" s="1">
         <v>45033</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -2300,7 +2288,7 @@
       <c r="A109" s="1">
         <v>45034</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -2309,7 +2297,7 @@
       <c r="A110" s="1">
         <v>45035</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -2318,7 +2306,7 @@
       <c r="A111" s="1">
         <v>45036</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -2327,7 +2315,7 @@
       <c r="A112" s="1">
         <v>45037</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -2336,7 +2324,7 @@
       <c r="A113" s="1">
         <v>45038</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -2345,7 +2333,7 @@
       <c r="A114" s="1">
         <v>45039</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -2354,7 +2342,7 @@
       <c r="A115" s="1">
         <v>45040</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -2363,7 +2351,7 @@
       <c r="A116" s="1">
         <v>45041</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -2372,7 +2360,7 @@
       <c r="A117" s="1">
         <v>45042</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -2381,7 +2369,7 @@
       <c r="A118" s="1">
         <v>45043</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -2390,7 +2378,7 @@
       <c r="A119" s="1">
         <v>45044</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -2399,7 +2387,7 @@
       <c r="A120" s="1">
         <v>45045</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -2408,7 +2396,7 @@
       <c r="A121" s="1">
         <v>45046</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -2417,7 +2405,7 @@
       <c r="A122" s="1">
         <v>45047</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -2426,7 +2414,7 @@
       <c r="A123" s="1">
         <v>45048</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -2435,7 +2423,7 @@
       <c r="A124" s="1">
         <v>45049</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -2444,7 +2432,7 @@
       <c r="A125" s="1">
         <v>45050</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -2453,7 +2441,7 @@
       <c r="A126" s="1">
         <v>45051</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -2462,7 +2450,7 @@
       <c r="A127" s="1">
         <v>45052</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -2471,7 +2459,7 @@
       <c r="A128" s="1">
         <v>45053</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -2480,7 +2468,7 @@
       <c r="A129" s="1">
         <v>45054</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -2489,7 +2477,7 @@
       <c r="A130" s="1">
         <v>45055</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -2498,7 +2486,7 @@
       <c r="A131" s="1">
         <v>45056</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131">
         <f t="shared" ref="B131:B194" si="2">WEEKNUM(A131,2)-1</f>
         <v>19</v>
       </c>
@@ -2507,7 +2495,7 @@
       <c r="A132" s="1">
         <v>45057</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
@@ -2516,7 +2504,7 @@
       <c r="A133" s="1">
         <v>45058</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
@@ -2525,7 +2513,7 @@
       <c r="A134" s="1">
         <v>45059</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
@@ -2534,7 +2522,7 @@
       <c r="A135" s="1">
         <v>45060</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
@@ -2543,7 +2531,7 @@
       <c r="A136" s="1">
         <v>45061</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -2552,7 +2540,7 @@
       <c r="A137" s="1">
         <v>45062</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -2561,7 +2549,7 @@
       <c r="A138" s="1">
         <v>45063</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -2570,7 +2558,7 @@
       <c r="A139" s="1">
         <v>45064</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -2579,7 +2567,7 @@
       <c r="A140" s="1">
         <v>45065</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -2588,7 +2576,7 @@
       <c r="A141" s="1">
         <v>45066</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -2597,7 +2585,7 @@
       <c r="A142" s="1">
         <v>45067</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -2606,7 +2594,7 @@
       <c r="A143" s="1">
         <v>45068</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
@@ -2615,7 +2603,7 @@
       <c r="A144" s="1">
         <v>45069</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
@@ -2624,7 +2612,7 @@
       <c r="A145" s="1">
         <v>45070</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
@@ -2633,7 +2621,7 @@
       <c r="A146" s="1">
         <v>45071</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
@@ -2642,7 +2630,7 @@
       <c r="A147" s="1">
         <v>45072</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
@@ -2651,7 +2639,7 @@
       <c r="A148" s="1">
         <v>45073</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
@@ -2660,7 +2648,7 @@
       <c r="A149" s="1">
         <v>45074</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
@@ -2669,7 +2657,7 @@
       <c r="A150" s="1">
         <v>45075</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
@@ -2678,7 +2666,7 @@
       <c r="A151" s="1">
         <v>45076</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
@@ -2687,7 +2675,7 @@
       <c r="A152" s="1">
         <v>45077</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
@@ -2696,7 +2684,7 @@
       <c r="A153" s="1">
         <v>45078</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
@@ -2705,7 +2693,7 @@
       <c r="A154" s="1">
         <v>45079</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
@@ -2714,7 +2702,7 @@
       <c r="A155" s="1">
         <v>45080</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
@@ -2723,7 +2711,7 @@
       <c r="A156" s="1">
         <v>45081</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
@@ -2732,7 +2720,7 @@
       <c r="A157" s="1">
         <v>45082</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -2741,7 +2729,7 @@
       <c r="A158" s="1">
         <v>45083</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -2750,7 +2738,7 @@
       <c r="A159" s="1">
         <v>45084</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -2759,7 +2747,7 @@
       <c r="A160" s="1">
         <v>45085</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -2768,7 +2756,7 @@
       <c r="A161" s="1">
         <v>45086</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -2777,7 +2765,7 @@
       <c r="A162" s="1">
         <v>45087</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -2786,7 +2774,7 @@
       <c r="A163" s="1">
         <v>45088</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -2795,7 +2783,7 @@
       <c r="A164" s="1">
         <v>45089</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
@@ -2804,7 +2792,7 @@
       <c r="A165" s="1">
         <v>45090</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
@@ -2813,7 +2801,7 @@
       <c r="A166" s="1">
         <v>45091</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
@@ -2822,7 +2810,7 @@
       <c r="A167" s="1">
         <v>45092</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
@@ -2831,7 +2819,7 @@
       <c r="A168" s="1">
         <v>45093</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
@@ -2840,7 +2828,7 @@
       <c r="A169" s="1">
         <v>45094</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
@@ -2849,7 +2837,7 @@
       <c r="A170" s="1">
         <v>45095</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
@@ -2858,7 +2846,7 @@
       <c r="A171" s="1">
         <v>45096</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -2867,7 +2855,7 @@
       <c r="A172" s="1">
         <v>45097</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -2876,7 +2864,7 @@
       <c r="A173" s="1">
         <v>45098</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -2885,7 +2873,7 @@
       <c r="A174" s="1">
         <v>45099</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -2894,7 +2882,7 @@
       <c r="A175" s="1">
         <v>45100</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -2903,7 +2891,7 @@
       <c r="A176" s="1">
         <v>45101</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -2912,7 +2900,7 @@
       <c r="A177" s="1">
         <v>45102</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -2921,7 +2909,7 @@
       <c r="A178" s="1">
         <v>45103</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -2930,7 +2918,7 @@
       <c r="A179" s="1">
         <v>45104</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -2939,7 +2927,7 @@
       <c r="A180" s="1">
         <v>45105</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -2948,7 +2936,7 @@
       <c r="A181" s="1">
         <v>45106</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -2957,7 +2945,7 @@
       <c r="A182" s="1">
         <v>45107</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -2966,7 +2954,7 @@
       <c r="A183" s="1">
         <v>45108</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -2975,7 +2963,7 @@
       <c r="A184" s="1">
         <v>45109</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -2984,7 +2972,7 @@
       <c r="A185" s="1">
         <v>45110</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -2993,7 +2981,7 @@
       <c r="A186" s="1">
         <v>45111</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -3002,7 +2990,7 @@
       <c r="A187" s="1">
         <v>45112</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -3011,7 +2999,7 @@
       <c r="A188" s="1">
         <v>45113</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -3020,7 +3008,7 @@
       <c r="A189" s="1">
         <v>45114</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -3029,7 +3017,7 @@
       <c r="A190" s="1">
         <v>45115</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -3038,7 +3026,7 @@
       <c r="A191" s="1">
         <v>45116</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -3047,7 +3035,7 @@
       <c r="A192" s="1">
         <v>45117</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
@@ -3056,7 +3044,7 @@
       <c r="A193" s="1">
         <v>45118</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
@@ -3065,7 +3053,7 @@
       <c r="A194" s="1">
         <v>45119</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
@@ -3074,7 +3062,7 @@
       <c r="A195" s="1">
         <v>45120</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195">
         <f t="shared" ref="B195:B258" si="3">WEEKNUM(A195,2)-1</f>
         <v>28</v>
       </c>
@@ -3083,7 +3071,7 @@
       <c r="A196" s="1">
         <v>45121</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
@@ -3092,7 +3080,7 @@
       <c r="A197" s="1">
         <v>45122</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
@@ -3101,7 +3089,7 @@
       <c r="A198" s="1">
         <v>45123</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
@@ -3110,7 +3098,7 @@
       <c r="A199" s="1">
         <v>45124</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
@@ -3119,7 +3107,7 @@
       <c r="A200" s="1">
         <v>45125</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
@@ -3128,7 +3116,7 @@
       <c r="A201" s="1">
         <v>45126</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
@@ -3137,7 +3125,7 @@
       <c r="A202" s="1">
         <v>45127</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
@@ -3146,7 +3134,7 @@
       <c r="A203" s="1">
         <v>45128</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
@@ -3155,7 +3143,7 @@
       <c r="A204" s="1">
         <v>45129</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
@@ -3164,7 +3152,7 @@
       <c r="A205" s="1">
         <v>45130</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
@@ -3173,7 +3161,7 @@
       <c r="A206" s="1">
         <v>45131</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -3182,7 +3170,7 @@
       <c r="A207" s="1">
         <v>45132</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -3191,7 +3179,7 @@
       <c r="A208" s="1">
         <v>45133</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -3200,7 +3188,7 @@
       <c r="A209" s="1">
         <v>45134</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -3209,7 +3197,7 @@
       <c r="A210" s="1">
         <v>45135</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -3218,7 +3206,7 @@
       <c r="A211" s="1">
         <v>45136</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -3227,7 +3215,7 @@
       <c r="A212" s="1">
         <v>45137</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
@@ -3236,7 +3224,7 @@
       <c r="A213" s="1">
         <v>45138</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
@@ -3245,7 +3233,7 @@
       <c r="A214" s="1">
         <v>45139</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
@@ -3254,7 +3242,7 @@
       <c r="A215" s="1">
         <v>45140</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
@@ -3263,7 +3251,7 @@
       <c r="A216" s="1">
         <v>45141</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
@@ -3272,7 +3260,7 @@
       <c r="A217" s="1">
         <v>45142</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
@@ -3281,7 +3269,7 @@
       <c r="A218" s="1">
         <v>45143</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
@@ -3290,7 +3278,7 @@
       <c r="A219" s="1">
         <v>45144</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
@@ -3299,7 +3287,7 @@
       <c r="A220" s="1">
         <v>45145</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
@@ -3308,7 +3296,7 @@
       <c r="A221" s="1">
         <v>45146</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
@@ -3317,7 +3305,7 @@
       <c r="A222" s="1">
         <v>45147</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B222">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
@@ -3326,7 +3314,7 @@
       <c r="A223" s="1">
         <v>45148</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B223">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
@@ -3335,7 +3323,7 @@
       <c r="A224" s="1">
         <v>45149</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
@@ -3344,7 +3332,7 @@
       <c r="A225" s="1">
         <v>45150</v>
       </c>
-      <c r="B225" s="2">
+      <c r="B225">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
@@ -3353,7 +3341,7 @@
       <c r="A226" s="1">
         <v>45151</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
@@ -3362,7 +3350,7 @@
       <c r="A227" s="1">
         <v>45152</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
@@ -3371,7 +3359,7 @@
       <c r="A228" s="1">
         <v>45153</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
@@ -3380,7 +3368,7 @@
       <c r="A229" s="1">
         <v>45154</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
@@ -3389,7 +3377,7 @@
       <c r="A230" s="1">
         <v>45155</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B230">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
@@ -3398,7 +3386,7 @@
       <c r="A231" s="1">
         <v>45156</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
@@ -3407,7 +3395,7 @@
       <c r="A232" s="1">
         <v>45157</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B232">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
@@ -3416,7 +3404,7 @@
       <c r="A233" s="1">
         <v>45158</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
@@ -3425,7 +3413,7 @@
       <c r="A234" s="1">
         <v>45159</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B234">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
@@ -3434,7 +3422,7 @@
       <c r="A235" s="1">
         <v>45160</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
@@ -3443,7 +3431,7 @@
       <c r="A236" s="1">
         <v>45161</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
@@ -3452,7 +3440,7 @@
       <c r="A237" s="1">
         <v>45162</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B237">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
@@ -3461,7 +3449,7 @@
       <c r="A238" s="1">
         <v>45163</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
@@ -3470,7 +3458,7 @@
       <c r="A239" s="1">
         <v>45164</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
@@ -3479,7 +3467,7 @@
       <c r="A240" s="1">
         <v>45165</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
@@ -3488,7 +3476,7 @@
       <c r="A241" s="1">
         <v>45166</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -3497,7 +3485,7 @@
       <c r="A242" s="1">
         <v>45167</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -3506,7 +3494,7 @@
       <c r="A243" s="1">
         <v>45168</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B243">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -3515,7 +3503,7 @@
       <c r="A244" s="1">
         <v>45169</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B244">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -3524,7 +3512,7 @@
       <c r="A245" s="1">
         <v>45170</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -3533,7 +3521,7 @@
       <c r="A246" s="1">
         <v>45171</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B246">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -3542,7 +3530,7 @@
       <c r="A247" s="1">
         <v>45172</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -3551,7 +3539,7 @@
       <c r="A248" s="1">
         <v>45173</v>
       </c>
-      <c r="B248" s="2">
+      <c r="B248">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
@@ -3560,7 +3548,7 @@
       <c r="A249" s="1">
         <v>45174</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B249">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
@@ -3569,7 +3557,7 @@
       <c r="A250" s="1">
         <v>45175</v>
       </c>
-      <c r="B250" s="2">
+      <c r="B250">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
@@ -3578,7 +3566,7 @@
       <c r="A251" s="1">
         <v>45176</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
@@ -3587,7 +3575,7 @@
       <c r="A252" s="1">
         <v>45177</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B252">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
@@ -3596,7 +3584,7 @@
       <c r="A253" s="1">
         <v>45178</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B253">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
@@ -3605,7 +3593,7 @@
       <c r="A254" s="1">
         <v>45179</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
@@ -3614,7 +3602,7 @@
       <c r="A255" s="1">
         <v>45180</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
@@ -3623,7 +3611,7 @@
       <c r="A256" s="1">
         <v>45181</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B256">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
@@ -3632,7 +3620,7 @@
       <c r="A257" s="1">
         <v>45182</v>
       </c>
-      <c r="B257" s="2">
+      <c r="B257">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
@@ -3641,7 +3629,7 @@
       <c r="A258" s="1">
         <v>45183</v>
       </c>
-      <c r="B258" s="2">
+      <c r="B258">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
@@ -3650,7 +3638,7 @@
       <c r="A259" s="1">
         <v>45184</v>
       </c>
-      <c r="B259" s="2">
+      <c r="B259">
         <f t="shared" ref="B259:B322" si="4">WEEKNUM(A259,2)-1</f>
         <v>37</v>
       </c>
@@ -3659,7 +3647,7 @@
       <c r="A260" s="1">
         <v>45185</v>
       </c>
-      <c r="B260" s="2">
+      <c r="B260">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
@@ -3668,7 +3656,7 @@
       <c r="A261" s="1">
         <v>45186</v>
       </c>
-      <c r="B261" s="2">
+      <c r="B261">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
@@ -3677,7 +3665,7 @@
       <c r="A262" s="1">
         <v>45187</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B262">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
@@ -3686,7 +3674,7 @@
       <c r="A263" s="1">
         <v>45188</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B263">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
@@ -3695,7 +3683,7 @@
       <c r="A264" s="1">
         <v>45189</v>
       </c>
-      <c r="B264" s="2">
+      <c r="B264">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
@@ -3704,7 +3692,7 @@
       <c r="A265" s="1">
         <v>45190</v>
       </c>
-      <c r="B265" s="2">
+      <c r="B265">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
@@ -3713,7 +3701,7 @@
       <c r="A266" s="1">
         <v>45191</v>
       </c>
-      <c r="B266" s="2">
+      <c r="B266">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
@@ -3722,7 +3710,7 @@
       <c r="A267" s="1">
         <v>45192</v>
       </c>
-      <c r="B267" s="2">
+      <c r="B267">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
@@ -3731,7 +3719,7 @@
       <c r="A268" s="1">
         <v>45193</v>
       </c>
-      <c r="B268" s="2">
+      <c r="B268">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
@@ -3740,7 +3728,7 @@
       <c r="A269" s="1">
         <v>45194</v>
       </c>
-      <c r="B269" s="2">
+      <c r="B269">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
@@ -3749,7 +3737,7 @@
       <c r="A270" s="1">
         <v>45195</v>
       </c>
-      <c r="B270" s="2">
+      <c r="B270">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
@@ -3758,7 +3746,7 @@
       <c r="A271" s="1">
         <v>45196</v>
       </c>
-      <c r="B271" s="2">
+      <c r="B271">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
@@ -3767,7 +3755,7 @@
       <c r="A272" s="1">
         <v>45197</v>
       </c>
-      <c r="B272" s="2">
+      <c r="B272">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
@@ -3776,7 +3764,7 @@
       <c r="A273" s="1">
         <v>45198</v>
       </c>
-      <c r="B273" s="2">
+      <c r="B273">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
@@ -3785,7 +3773,7 @@
       <c r="A274" s="1">
         <v>45199</v>
       </c>
-      <c r="B274" s="2">
+      <c r="B274">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
@@ -3794,7 +3782,7 @@
       <c r="A275" s="1">
         <v>45200</v>
       </c>
-      <c r="B275" s="2">
+      <c r="B275">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
@@ -3803,7 +3791,7 @@
       <c r="A276" s="1">
         <v>45201</v>
       </c>
-      <c r="B276" s="2">
+      <c r="B276">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
@@ -3812,7 +3800,7 @@
       <c r="A277" s="1">
         <v>45202</v>
       </c>
-      <c r="B277" s="2">
+      <c r="B277">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
@@ -3821,7 +3809,7 @@
       <c r="A278" s="1">
         <v>45203</v>
       </c>
-      <c r="B278" s="2">
+      <c r="B278">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
@@ -3830,7 +3818,7 @@
       <c r="A279" s="1">
         <v>45204</v>
       </c>
-      <c r="B279" s="2">
+      <c r="B279">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
@@ -3839,7 +3827,7 @@
       <c r="A280" s="1">
         <v>45205</v>
       </c>
-      <c r="B280" s="2">
+      <c r="B280">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
@@ -3848,7 +3836,7 @@
       <c r="A281" s="1">
         <v>45206</v>
       </c>
-      <c r="B281" s="2">
+      <c r="B281">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
@@ -3857,7 +3845,7 @@
       <c r="A282" s="1">
         <v>45207</v>
       </c>
-      <c r="B282" s="2">
+      <c r="B282">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
@@ -3866,7 +3854,7 @@
       <c r="A283" s="1">
         <v>45208</v>
       </c>
-      <c r="B283" s="2">
+      <c r="B283">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
@@ -3875,7 +3863,7 @@
       <c r="A284" s="1">
         <v>45209</v>
       </c>
-      <c r="B284" s="2">
+      <c r="B284">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
@@ -3884,7 +3872,7 @@
       <c r="A285" s="1">
         <v>45210</v>
       </c>
-      <c r="B285" s="2">
+      <c r="B285">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
@@ -3893,7 +3881,7 @@
       <c r="A286" s="1">
         <v>45211</v>
       </c>
-      <c r="B286" s="2">
+      <c r="B286">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
@@ -3902,7 +3890,7 @@
       <c r="A287" s="1">
         <v>45212</v>
       </c>
-      <c r="B287" s="2">
+      <c r="B287">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
@@ -3911,7 +3899,7 @@
       <c r="A288" s="1">
         <v>45213</v>
       </c>
-      <c r="B288" s="2">
+      <c r="B288">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
@@ -3920,7 +3908,7 @@
       <c r="A289" s="1">
         <v>45214</v>
       </c>
-      <c r="B289" s="2">
+      <c r="B289">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
@@ -3929,7 +3917,7 @@
       <c r="A290" s="1">
         <v>45215</v>
       </c>
-      <c r="B290" s="2">
+      <c r="B290">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
@@ -3938,7 +3926,7 @@
       <c r="A291" s="1">
         <v>45216</v>
       </c>
-      <c r="B291" s="2">
+      <c r="B291">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
@@ -3947,7 +3935,7 @@
       <c r="A292" s="1">
         <v>45217</v>
       </c>
-      <c r="B292" s="2">
+      <c r="B292">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
@@ -3956,7 +3944,7 @@
       <c r="A293" s="1">
         <v>45218</v>
       </c>
-      <c r="B293" s="2">
+      <c r="B293">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
@@ -3965,7 +3953,7 @@
       <c r="A294" s="1">
         <v>45219</v>
       </c>
-      <c r="B294" s="2">
+      <c r="B294">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
@@ -3974,7 +3962,7 @@
       <c r="A295" s="1">
         <v>45220</v>
       </c>
-      <c r="B295" s="2">
+      <c r="B295">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
@@ -3983,7 +3971,7 @@
       <c r="A296" s="1">
         <v>45221</v>
       </c>
-      <c r="B296" s="2">
+      <c r="B296">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
@@ -3992,7 +3980,7 @@
       <c r="A297" s="1">
         <v>45222</v>
       </c>
-      <c r="B297" s="2">
+      <c r="B297">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
@@ -4001,7 +3989,7 @@
       <c r="A298" s="1">
         <v>45223</v>
       </c>
-      <c r="B298" s="2">
+      <c r="B298">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
@@ -4010,7 +3998,7 @@
       <c r="A299" s="1">
         <v>45224</v>
       </c>
-      <c r="B299" s="2">
+      <c r="B299">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
@@ -4019,7 +4007,7 @@
       <c r="A300" s="1">
         <v>45225</v>
       </c>
-      <c r="B300" s="2">
+      <c r="B300">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
@@ -4028,7 +4016,7 @@
       <c r="A301" s="1">
         <v>45226</v>
       </c>
-      <c r="B301" s="2">
+      <c r="B301">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
@@ -4037,7 +4025,7 @@
       <c r="A302" s="1">
         <v>45227</v>
       </c>
-      <c r="B302" s="2">
+      <c r="B302">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
@@ -4046,7 +4034,7 @@
       <c r="A303" s="1">
         <v>45228</v>
       </c>
-      <c r="B303" s="2">
+      <c r="B303">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
@@ -4055,7 +4043,7 @@
       <c r="A304" s="1">
         <v>45229</v>
       </c>
-      <c r="B304" s="2">
+      <c r="B304">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
@@ -4064,7 +4052,7 @@
       <c r="A305" s="1">
         <v>45230</v>
       </c>
-      <c r="B305" s="2">
+      <c r="B305">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
@@ -4073,7 +4061,7 @@
       <c r="A306" s="1">
         <v>45231</v>
       </c>
-      <c r="B306" s="2">
+      <c r="B306">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
@@ -4082,7 +4070,7 @@
       <c r="A307" s="1">
         <v>45232</v>
       </c>
-      <c r="B307" s="2">
+      <c r="B307">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
@@ -4091,7 +4079,7 @@
       <c r="A308" s="1">
         <v>45233</v>
       </c>
-      <c r="B308" s="2">
+      <c r="B308">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
@@ -4100,7 +4088,7 @@
       <c r="A309" s="1">
         <v>45234</v>
       </c>
-      <c r="B309" s="2">
+      <c r="B309">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
@@ -4109,7 +4097,7 @@
       <c r="A310" s="1">
         <v>45235</v>
       </c>
-      <c r="B310" s="2">
+      <c r="B310">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
@@ -4118,7 +4106,7 @@
       <c r="A311" s="1">
         <v>45236</v>
       </c>
-      <c r="B311" s="2">
+      <c r="B311">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
@@ -4127,7 +4115,7 @@
       <c r="A312" s="1">
         <v>45237</v>
       </c>
-      <c r="B312" s="2">
+      <c r="B312">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
@@ -4136,7 +4124,7 @@
       <c r="A313" s="1">
         <v>45238</v>
       </c>
-      <c r="B313" s="2">
+      <c r="B313">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
@@ -4145,7 +4133,7 @@
       <c r="A314" s="1">
         <v>45239</v>
       </c>
-      <c r="B314" s="2">
+      <c r="B314">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
@@ -4154,7 +4142,7 @@
       <c r="A315" s="1">
         <v>45240</v>
       </c>
-      <c r="B315" s="2">
+      <c r="B315">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
@@ -4163,7 +4151,7 @@
       <c r="A316" s="1">
         <v>45241</v>
       </c>
-      <c r="B316" s="2">
+      <c r="B316">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
@@ -4172,7 +4160,7 @@
       <c r="A317" s="1">
         <v>45242</v>
       </c>
-      <c r="B317" s="2">
+      <c r="B317">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
@@ -4181,7 +4169,7 @@
       <c r="A318" s="1">
         <v>45243</v>
       </c>
-      <c r="B318" s="2">
+      <c r="B318">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
@@ -4190,7 +4178,7 @@
       <c r="A319" s="1">
         <v>45244</v>
       </c>
-      <c r="B319" s="2">
+      <c r="B319">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
@@ -4199,7 +4187,7 @@
       <c r="A320" s="1">
         <v>45245</v>
       </c>
-      <c r="B320" s="2">
+      <c r="B320">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
@@ -4208,7 +4196,7 @@
       <c r="A321" s="1">
         <v>45246</v>
       </c>
-      <c r="B321" s="2">
+      <c r="B321">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
@@ -4217,7 +4205,7 @@
       <c r="A322" s="1">
         <v>45247</v>
       </c>
-      <c r="B322" s="2">
+      <c r="B322">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
@@ -4226,7 +4214,7 @@
       <c r="A323" s="1">
         <v>45248</v>
       </c>
-      <c r="B323" s="2">
+      <c r="B323">
         <f t="shared" ref="B323:B366" si="5">WEEKNUM(A323,2)-1</f>
         <v>46</v>
       </c>
@@ -4235,7 +4223,7 @@
       <c r="A324" s="1">
         <v>45249</v>
       </c>
-      <c r="B324" s="2">
+      <c r="B324">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
@@ -4244,7 +4232,7 @@
       <c r="A325" s="1">
         <v>45250</v>
       </c>
-      <c r="B325" s="2">
+      <c r="B325">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
@@ -4253,7 +4241,7 @@
       <c r="A326" s="1">
         <v>45251</v>
       </c>
-      <c r="B326" s="2">
+      <c r="B326">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
@@ -4262,7 +4250,7 @@
       <c r="A327" s="1">
         <v>45252</v>
       </c>
-      <c r="B327" s="2">
+      <c r="B327">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
@@ -4271,7 +4259,7 @@
       <c r="A328" s="1">
         <v>45253</v>
       </c>
-      <c r="B328" s="2">
+      <c r="B328">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
@@ -4280,7 +4268,7 @@
       <c r="A329" s="1">
         <v>45254</v>
       </c>
-      <c r="B329" s="2">
+      <c r="B329">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
@@ -4289,7 +4277,7 @@
       <c r="A330" s="1">
         <v>45255</v>
       </c>
-      <c r="B330" s="2">
+      <c r="B330">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
@@ -4298,7 +4286,7 @@
       <c r="A331" s="1">
         <v>45256</v>
       </c>
-      <c r="B331" s="2">
+      <c r="B331">
         <f t="shared" si="5"/>
         <v>47</v>
       </c>
@@ -4307,7 +4295,7 @@
       <c r="A332" s="1">
         <v>45257</v>
       </c>
-      <c r="B332" s="2">
+      <c r="B332">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
@@ -4316,7 +4304,7 @@
       <c r="A333" s="1">
         <v>45258</v>
       </c>
-      <c r="B333" s="2">
+      <c r="B333">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
@@ -4325,7 +4313,7 @@
       <c r="A334" s="1">
         <v>45259</v>
       </c>
-      <c r="B334" s="2">
+      <c r="B334">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
@@ -4334,7 +4322,7 @@
       <c r="A335" s="1">
         <v>45260</v>
       </c>
-      <c r="B335" s="2">
+      <c r="B335">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
@@ -4343,7 +4331,7 @@
       <c r="A336" s="1">
         <v>45261</v>
       </c>
-      <c r="B336" s="2">
+      <c r="B336">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
@@ -4352,7 +4340,7 @@
       <c r="A337" s="1">
         <v>45262</v>
       </c>
-      <c r="B337" s="2">
+      <c r="B337">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
@@ -4361,7 +4349,7 @@
       <c r="A338" s="1">
         <v>45263</v>
       </c>
-      <c r="B338" s="2">
+      <c r="B338">
         <f t="shared" si="5"/>
         <v>48</v>
       </c>
@@ -4370,7 +4358,7 @@
       <c r="A339" s="1">
         <v>45264</v>
       </c>
-      <c r="B339" s="2">
+      <c r="B339">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
@@ -4379,7 +4367,7 @@
       <c r="A340" s="1">
         <v>45265</v>
       </c>
-      <c r="B340" s="2">
+      <c r="B340">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
@@ -4388,7 +4376,7 @@
       <c r="A341" s="1">
         <v>45266</v>
       </c>
-      <c r="B341" s="2">
+      <c r="B341">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
@@ -4397,7 +4385,7 @@
       <c r="A342" s="1">
         <v>45267</v>
       </c>
-      <c r="B342" s="2">
+      <c r="B342">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
@@ -4406,7 +4394,7 @@
       <c r="A343" s="1">
         <v>45268</v>
       </c>
-      <c r="B343" s="2">
+      <c r="B343">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
@@ -4415,7 +4403,7 @@
       <c r="A344" s="1">
         <v>45269</v>
       </c>
-      <c r="B344" s="2">
+      <c r="B344">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
@@ -4424,7 +4412,7 @@
       <c r="A345" s="1">
         <v>45270</v>
       </c>
-      <c r="B345" s="2">
+      <c r="B345">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
@@ -4433,7 +4421,7 @@
       <c r="A346" s="1">
         <v>45271</v>
       </c>
-      <c r="B346" s="2">
+      <c r="B346">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
@@ -4442,7 +4430,7 @@
       <c r="A347" s="1">
         <v>45272</v>
       </c>
-      <c r="B347" s="2">
+      <c r="B347">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
@@ -4451,7 +4439,7 @@
       <c r="A348" s="1">
         <v>45273</v>
       </c>
-      <c r="B348" s="2">
+      <c r="B348">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
@@ -4460,7 +4448,7 @@
       <c r="A349" s="1">
         <v>45274</v>
       </c>
-      <c r="B349" s="2">
+      <c r="B349">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
@@ -4469,7 +4457,7 @@
       <c r="A350" s="1">
         <v>45275</v>
       </c>
-      <c r="B350" s="2">
+      <c r="B350">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
@@ -4478,7 +4466,7 @@
       <c r="A351" s="1">
         <v>45276</v>
       </c>
-      <c r="B351" s="2">
+      <c r="B351">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
@@ -4487,7 +4475,7 @@
       <c r="A352" s="1">
         <v>45277</v>
       </c>
-      <c r="B352" s="2">
+      <c r="B352">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
@@ -4496,7 +4484,7 @@
       <c r="A353" s="1">
         <v>45278</v>
       </c>
-      <c r="B353" s="2">
+      <c r="B353">
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
@@ -4505,7 +4493,7 @@
       <c r="A354" s="1">
         <v>45279</v>
       </c>
-      <c r="B354" s="2">
+      <c r="B354">
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
@@ -4514,7 +4502,7 @@
       <c r="A355" s="1">
         <v>45280</v>
       </c>
-      <c r="B355" s="2">
+      <c r="B355">
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
@@ -4523,7 +4511,7 @@
       <c r="A356" s="1">
         <v>45281</v>
       </c>
-      <c r="B356" s="2">
+      <c r="B356">
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
@@ -4532,7 +4520,7 @@
       <c r="A357" s="1">
         <v>45282</v>
       </c>
-      <c r="B357" s="2">
+      <c r="B357">
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
@@ -4541,7 +4529,7 @@
       <c r="A358" s="1">
         <v>45283</v>
       </c>
-      <c r="B358" s="2">
+      <c r="B358">
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
@@ -4550,7 +4538,7 @@
       <c r="A359" s="1">
         <v>45284</v>
       </c>
-      <c r="B359" s="2">
+      <c r="B359">
         <f t="shared" si="5"/>
         <v>51</v>
       </c>
@@ -4559,7 +4547,7 @@
       <c r="A360" s="1">
         <v>45285</v>
       </c>
-      <c r="B360" s="2">
+      <c r="B360">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
@@ -4568,7 +4556,7 @@
       <c r="A361" s="1">
         <v>45286</v>
       </c>
-      <c r="B361" s="2">
+      <c r="B361">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
@@ -4577,7 +4565,7 @@
       <c r="A362" s="1">
         <v>45287</v>
       </c>
-      <c r="B362" s="2">
+      <c r="B362">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
@@ -4586,7 +4574,7 @@
       <c r="A363" s="1">
         <v>45288</v>
       </c>
-      <c r="B363" s="2">
+      <c r="B363">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
@@ -4595,7 +4583,7 @@
       <c r="A364" s="1">
         <v>45289</v>
       </c>
-      <c r="B364" s="2">
+      <c r="B364">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
@@ -4604,7 +4592,7 @@
       <c r="A365" s="1">
         <v>45290</v>
       </c>
-      <c r="B365" s="2">
+      <c r="B365">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
@@ -4613,7 +4601,7 @@
       <c r="A366" s="1">
         <v>45291</v>
       </c>
-      <c r="B366" s="2">
+      <c r="B366">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
@@ -4634,184 +4622,184 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B8" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="B9" s="5">
         <v>10000</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C9" s="5">
         <v>10000</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D9" s="5">
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
         <v>10000</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C10" s="5">
         <v>10000</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D10" s="5">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
         <v>10000</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C11" s="5">
         <v>10000</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D11" s="5">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
         <v>10000</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C12" s="5">
         <v>10000</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D12" s="5">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
         <v>10000</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C13" s="5">
         <v>10000</v>
       </c>
-      <c r="D6" s="6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
-        <v>10000</v>
-      </c>
-      <c r="C7" s="6">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
-        <v>10000</v>
-      </c>
-      <c r="C8" s="6">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <v>10000</v>
-      </c>
-      <c r="C9" s="6">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>10000</v>
-      </c>
-      <c r="C10" s="6">
-        <v>10000</v>
-      </c>
-      <c r="D10" s="6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>10000</v>
-      </c>
-      <c r="C11" s="6">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6">
-        <v>10000</v>
-      </c>
-      <c r="C12" s="6">
-        <v>10000</v>
-      </c>
-      <c r="D12" s="6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6">
-        <v>10000</v>
-      </c>
-      <c r="C13" s="6">
-        <v>10000</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>10000</v>
       </c>
     </row>
@@ -4837,323 +4825,323 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>19</v>
+      </c>
+      <c r="C2" s="9">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <f>IF(ShiftSystem!B3=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!J19)*ShiftSystem!J35-ShiftSystem!J3</f>
+        <v>38</v>
+      </c>
+      <c r="F2" s="5">
+        <f>IF(ShiftSystem!C3=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!K19)*ShiftSystem!K35-ShiftSystem!K3</f>
+        <v>57</v>
+      </c>
+      <c r="G2" s="5">
+        <f>IF(ShiftSystem!D3=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!L19)*ShiftSystem!L35-ShiftSystem!L3</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>20</v>
+      </c>
+      <c r="C3" s="9">
+        <v>8</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="5">
+        <f>IF(ShiftSystem!B4=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!J20)*ShiftSystem!J36-ShiftSystem!J4</f>
+        <v>40</v>
+      </c>
+      <c r="F3" s="5">
+        <f>IF(ShiftSystem!C4=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!K20)*ShiftSystem!K36-ShiftSystem!K4</f>
+        <v>60</v>
+      </c>
+      <c r="G3" s="5">
+        <f>IF(ShiftSystem!D4=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!L20)*ShiftSystem!L36-ShiftSystem!L4</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>23</v>
+      </c>
+      <c r="C4" s="9">
+        <v>8</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="5">
+        <f>IF(ShiftSystem!B5=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!J21)*ShiftSystem!J37-ShiftSystem!J5</f>
+        <v>46</v>
+      </c>
+      <c r="F4" s="5">
+        <f>IF(ShiftSystem!C5=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!K21)*ShiftSystem!K37-ShiftSystem!K5</f>
+        <v>69</v>
+      </c>
+      <c r="G4" s="5">
+        <f>IF(ShiftSystem!D5=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!L21)*ShiftSystem!L37-ShiftSystem!L5</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>20</v>
+      </c>
+      <c r="C5" s="9">
+        <v>8</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <f>IF(ShiftSystem!B6=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!J22)*ShiftSystem!J38-ShiftSystem!J6</f>
+        <v>40</v>
+      </c>
+      <c r="F5" s="5">
+        <f>IF(ShiftSystem!C6=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!K22)*ShiftSystem!K38-ShiftSystem!K6</f>
+        <v>60</v>
+      </c>
+      <c r="G5" s="5">
+        <f>IF(ShiftSystem!D6=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!L22)*ShiftSystem!L38-ShiftSystem!L6</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <f>IF(ShiftSystem!B7=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!J23)*ShiftSystem!J39-ShiftSystem!J7</f>
+        <v>42</v>
+      </c>
+      <c r="F6" s="5">
+        <f>IF(ShiftSystem!C7=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!K23)*ShiftSystem!K39-ShiftSystem!K7</f>
+        <v>63</v>
+      </c>
+      <c r="G6" s="5">
+        <f>IF(ShiftSystem!D7=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!L23)*ShiftSystem!L39-ShiftSystem!L7</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9">
+        <v>8</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <f>IF(ShiftSystem!B8=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!J24)*ShiftSystem!J40-ShiftSystem!J8</f>
+        <v>42</v>
+      </c>
+      <c r="F7" s="5">
+        <f>IF(ShiftSystem!C8=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!K24)*ShiftSystem!K40-ShiftSystem!K8</f>
+        <v>63</v>
+      </c>
+      <c r="G7" s="5">
+        <f>IF(ShiftSystem!D8=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!L24)*ShiftSystem!L40-ShiftSystem!L8</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="5">
+        <f>IF(ShiftSystem!B9=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!J25)*ShiftSystem!J41-ShiftSystem!J9</f>
+        <v>42</v>
+      </c>
+      <c r="F8" s="5">
+        <f>IF(ShiftSystem!C9=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!K25)*ShiftSystem!K41-ShiftSystem!K9</f>
+        <v>63</v>
+      </c>
+      <c r="G8" s="5">
+        <f>IF(ShiftSystem!D9=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!L25)*ShiftSystem!L41-ShiftSystem!L9</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>22</v>
+      </c>
+      <c r="C9" s="9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="5">
+        <f>IF(ShiftSystem!B10=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!J26)*ShiftSystem!J42-ShiftSystem!J10</f>
+        <v>44</v>
+      </c>
+      <c r="F9" s="5">
+        <f>IF(ShiftSystem!C10=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!K26)*ShiftSystem!K42-ShiftSystem!K10</f>
+        <v>66</v>
+      </c>
+      <c r="G9" s="5">
+        <f>IF(ShiftSystem!D10=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!L26)*ShiftSystem!L42-ShiftSystem!L10</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9">
+        <v>8</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="5">
+        <f>IF(ShiftSystem!B11=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!J27)*ShiftSystem!J43-ShiftSystem!J11</f>
+        <v>44</v>
+      </c>
+      <c r="F10" s="5">
+        <f>IF(ShiftSystem!C11=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!K27)*ShiftSystem!K43-ShiftSystem!K11</f>
+        <v>66</v>
+      </c>
+      <c r="G10" s="5">
+        <f>IF(ShiftSystem!D11=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!L27)*ShiftSystem!L43-ShiftSystem!L11</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>21</v>
+      </c>
+      <c r="C11" s="9">
+        <v>10</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="5">
+        <f>IF(ShiftSystem!B12=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!J28)*ShiftSystem!J44-ShiftSystem!J12</f>
+        <v>42</v>
+      </c>
+      <c r="F11" s="5">
+        <f>IF(ShiftSystem!C12=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!K28)*ShiftSystem!K44-ShiftSystem!K12</f>
+        <v>63</v>
+      </c>
+      <c r="G11" s="5">
+        <f>IF(ShiftSystem!D12=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!L28)*ShiftSystem!L44-ShiftSystem!L12</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="B12" s="5">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="D12" s="11"/>
+      <c r="E12" s="5">
+        <f>IF(ShiftSystem!B13=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!J29)*ShiftSystem!J45-ShiftSystem!J13</f>
+        <v>40</v>
+      </c>
+      <c r="F12" s="5">
+        <f>IF(ShiftSystem!C13=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!K29)*ShiftSystem!K45-ShiftSystem!K13</f>
+        <v>60</v>
+      </c>
+      <c r="G12" s="5">
+        <f>IF(ShiftSystem!D13=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!L29)*ShiftSystem!L45-ShiftSystem!L13</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12">
+        <v>21</v>
+      </c>
+      <c r="C13" s="13">
+        <v>9</v>
+      </c>
+      <c r="D13" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>19</v>
-      </c>
-      <c r="C2" s="10">
-        <v>10</v>
-      </c>
-      <c r="D2" s="11">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6">
-        <f>IF(ShiftSystem!B3=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!B19)*Obliczenia!B35-Obliczenia!B3</f>
-        <v>38</v>
-      </c>
-      <c r="F2" s="6">
-        <f>IF(ShiftSystem!C3=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!C19)*Obliczenia!C35-Obliczenia!C3</f>
-        <v>57</v>
-      </c>
-      <c r="G2" s="6">
-        <f>IF(ShiftSystem!D3=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!D19)*Obliczenia!D35-Obliczenia!D3</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10">
-        <v>8</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="6">
-        <f>IF(ShiftSystem!B4=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!B20)*Obliczenia!B36-Obliczenia!B4</f>
-        <v>40</v>
-      </c>
-      <c r="F3" s="6">
-        <f>IF(ShiftSystem!C4=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!C20)*Obliczenia!C36-Obliczenia!C4</f>
-        <v>60</v>
-      </c>
-      <c r="G3" s="6">
-        <f>IF(ShiftSystem!D4=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!D20)*Obliczenia!D36-Obliczenia!D4</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>23</v>
-      </c>
-      <c r="C4" s="10">
-        <v>8</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="6">
-        <f>IF(ShiftSystem!B5=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!B21)*Obliczenia!B37-Obliczenia!B5</f>
-        <v>46</v>
-      </c>
-      <c r="F4" s="6">
-        <f>IF(ShiftSystem!C5=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!C21)*Obliczenia!C37-Obliczenia!C5</f>
-        <v>69</v>
-      </c>
-      <c r="G4" s="6">
-        <f>IF(ShiftSystem!D5=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!D21)*Obliczenia!D37-Obliczenia!D5</f>
+      <c r="E13" s="5">
+        <f>IF(ShiftSystem!B14=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!J30)*ShiftSystem!J46-ShiftSystem!J14</f>
+        <v>42</v>
+      </c>
+      <c r="F13" s="5">
+        <f>IF(ShiftSystem!C14=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!K30)*ShiftSystem!K46-ShiftSystem!K14</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
-        <v>20</v>
-      </c>
-      <c r="C5" s="10">
-        <v>8</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="6">
-        <f>IF(ShiftSystem!B6=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!B22)*Obliczenia!B38-Obliczenia!B6</f>
-        <v>40</v>
-      </c>
-      <c r="F5" s="6">
-        <f>IF(ShiftSystem!C6=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!C22)*Obliczenia!C38-Obliczenia!C6</f>
-        <v>60</v>
-      </c>
-      <c r="G5" s="6">
-        <f>IF(ShiftSystem!D6=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!D22)*Obliczenia!D38-Obliczenia!D6</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>21</v>
-      </c>
-      <c r="C6" s="10">
-        <v>9</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
-        <f>IF(ShiftSystem!B7=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!B23)*Obliczenia!B39-Obliczenia!B7</f>
-        <v>42</v>
-      </c>
-      <c r="F6" s="6">
-        <f>IF(ShiftSystem!C7=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!C23)*Obliczenia!C39-Obliczenia!C7</f>
-        <v>63</v>
-      </c>
-      <c r="G6" s="6">
-        <f>IF(ShiftSystem!D7=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!D23)*Obliczenia!D39-Obliczenia!D7</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
-        <v>21</v>
-      </c>
-      <c r="C7" s="10">
-        <v>8</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <f>IF(ShiftSystem!B8=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!B24)*Obliczenia!B40-Obliczenia!B8</f>
-        <v>42</v>
-      </c>
-      <c r="F7" s="6">
-        <f>IF(ShiftSystem!C8=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!C24)*Obliczenia!C40-Obliczenia!C8</f>
-        <v>63</v>
-      </c>
-      <c r="G7" s="6">
-        <f>IF(ShiftSystem!D8=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!D24)*Obliczenia!D40-Obliczenia!D8</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
-        <v>21</v>
-      </c>
-      <c r="C8" s="10">
-        <v>10</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="6">
-        <f>IF(ShiftSystem!B9=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!B25)*Obliczenia!B41-Obliczenia!B9</f>
-        <v>42</v>
-      </c>
-      <c r="F8" s="6">
-        <f>IF(ShiftSystem!C9=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!C25)*Obliczenia!C41-Obliczenia!C9</f>
-        <v>63</v>
-      </c>
-      <c r="G8" s="6">
-        <f>IF(ShiftSystem!D9=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!D25)*Obliczenia!D41-Obliczenia!D9</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <v>22</v>
-      </c>
-      <c r="C9" s="10">
-        <v>8</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="6">
-        <f>IF(ShiftSystem!B10=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!B26)*Obliczenia!B42-Obliczenia!B10</f>
-        <v>44</v>
-      </c>
-      <c r="F9" s="6">
-        <f>IF(ShiftSystem!C10=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!C26)*Obliczenia!C42-Obliczenia!C10</f>
-        <v>66</v>
-      </c>
-      <c r="G9" s="6">
-        <f>IF(ShiftSystem!D10=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!D26)*Obliczenia!D42-Obliczenia!D10</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>22</v>
-      </c>
-      <c r="C10" s="10">
-        <v>8</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="6">
-        <f>IF(ShiftSystem!B11=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!B27)*Obliczenia!B43-Obliczenia!B11</f>
-        <v>44</v>
-      </c>
-      <c r="F10" s="6">
-        <f>IF(ShiftSystem!C11=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!C27)*Obliczenia!C43-Obliczenia!C11</f>
-        <v>66</v>
-      </c>
-      <c r="G10" s="6">
-        <f>IF(ShiftSystem!D11=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!D27)*Obliczenia!D43-Obliczenia!D11</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>21</v>
-      </c>
-      <c r="C11" s="10">
-        <v>10</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="6">
-        <f>IF(ShiftSystem!B12=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!B28)*Obliczenia!B44-Obliczenia!B12</f>
-        <v>42</v>
-      </c>
-      <c r="F11" s="6">
-        <f>IF(ShiftSystem!C12=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!C28)*Obliczenia!C44-Obliczenia!C12</f>
-        <v>63</v>
-      </c>
-      <c r="G11" s="6">
-        <f>IF(ShiftSystem!D12=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!D28)*Obliczenia!D44-Obliczenia!D12</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6">
-        <v>20</v>
-      </c>
-      <c r="C12" s="10">
-        <v>8</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="6">
-        <f>IF(ShiftSystem!B13=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!B29)*Obliczenia!B45-Obliczenia!B13</f>
-        <v>40</v>
-      </c>
-      <c r="F12" s="6">
-        <f>IF(ShiftSystem!C13=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!C29)*Obliczenia!C45-Obliczenia!C13</f>
-        <v>60</v>
-      </c>
-      <c r="G12" s="6">
-        <f>IF(ShiftSystem!D13=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!D29)*Obliczenia!D45-Obliczenia!D13</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13">
-        <v>21</v>
-      </c>
-      <c r="C13" s="14">
-        <v>9</v>
-      </c>
-      <c r="D13" s="15">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <f>IF(ShiftSystem!B14=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!B30)*Obliczenia!B46-Obliczenia!B14</f>
-        <v>42</v>
-      </c>
-      <c r="F13" s="6">
-        <f>IF(ShiftSystem!C14=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!C30)*Obliczenia!C46-Obliczenia!C14</f>
-        <v>63</v>
-      </c>
-      <c r="G13" s="6">
-        <f>IF(ShiftSystem!D14=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-Obliczenia!D30)*Obliczenia!D46-Obliczenia!D14</f>
+      <c r="G13" s="5">
+        <f>IF(ShiftSystem!D14=4,(PotencjalnyCzasPracy[[#This Row],[Weekend]]-PotencjalnyCzasPracy[[#This Row],[Holidays]])*3)+(PotencjalnyCzasPracy[[#This Row],[Days]]-ShiftSystem!L30)*ShiftSystem!L46-ShiftSystem!L14</f>
         <v>63</v>
       </c>
     </row>
@@ -5166,773 +5154,726 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8942-64B4-4121-9524-90FDF13E0D60}">
-  <dimension ref="A1:F46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E9F73A-364A-4672-840A-39823769D65A}">
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I17" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+    </row>
+    <row r="18" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I19" s="5">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I20" s="5">
+        <v>2</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I21" s="5">
+        <v>3</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I22" s="5">
+        <v>4</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I23" s="5">
+        <v>5</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I24" s="5">
+        <v>6</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+    </row>
+    <row r="25" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I25" s="5">
+        <v>7</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I26" s="5">
+        <v>8</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I27" s="5">
+        <v>9</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+    </row>
+    <row r="28" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I28" s="5">
+        <v>10</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+    </row>
+    <row r="29" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I29" s="5">
+        <v>11</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I30" s="5">
+        <v>12</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="33" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I33" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+    </row>
+    <row r="34" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="K34" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="L34" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    </row>
+    <row r="35" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I35">
         <v>1</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>3</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>4</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>5</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>6</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>7</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>8</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>9</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>10</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>11</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>12</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35">
+      <c r="J35">
         <f>IF(ShiftSystem!B2=4,3,ShiftSystem!B2)</f>
         <v>2</v>
       </c>
-      <c r="C35">
+      <c r="K35">
         <f>IF(ShiftSystem!C2=4,3,ShiftSystem!C2)</f>
         <v>3</v>
       </c>
-      <c r="D35">
+      <c r="L35">
         <f>IF(ShiftSystem!D2=4,3,ShiftSystem!D2)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I36">
         <v>2</v>
       </c>
-      <c r="B36">
+      <c r="J36">
         <f>IF(ShiftSystem!B3=4,3,ShiftSystem!B3)</f>
         <v>2</v>
       </c>
-      <c r="C36">
+      <c r="K36">
         <f>IF(ShiftSystem!C3=4,3,ShiftSystem!C3)</f>
         <v>3</v>
       </c>
-      <c r="D36">
+      <c r="L36">
         <f>IF(ShiftSystem!D3=4,3,ShiftSystem!D3)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>3</v>
-      </c>
-      <c r="B37">
+    <row r="37" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
         <f>IF(ShiftSystem!B4=4,3,ShiftSystem!B4)</f>
         <v>2</v>
       </c>
-      <c r="C37">
+      <c r="K37">
         <f>IF(ShiftSystem!C4=4,3,ShiftSystem!C4)</f>
         <v>3</v>
       </c>
-      <c r="D37">
+      <c r="L37">
         <f>IF(ShiftSystem!D4=4,3,ShiftSystem!D4)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I38">
         <v>4</v>
       </c>
-      <c r="B38">
+      <c r="J38">
         <f>IF(ShiftSystem!B5=4,3,ShiftSystem!B5)</f>
         <v>2</v>
       </c>
-      <c r="C38">
+      <c r="K38">
         <f>IF(ShiftSystem!C5=4,3,ShiftSystem!C5)</f>
         <v>3</v>
       </c>
-      <c r="D38">
+      <c r="L38">
         <f>IF(ShiftSystem!D5=4,3,ShiftSystem!D5)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I39">
         <v>5</v>
       </c>
-      <c r="B39">
+      <c r="J39">
         <f>IF(ShiftSystem!B6=4,3,ShiftSystem!B6)</f>
         <v>2</v>
       </c>
-      <c r="C39">
+      <c r="K39">
         <f>IF(ShiftSystem!C6=4,3,ShiftSystem!C6)</f>
         <v>3</v>
       </c>
-      <c r="D39">
+      <c r="L39">
         <f>IF(ShiftSystem!D6=4,3,ShiftSystem!D6)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I40">
         <v>6</v>
       </c>
-      <c r="B40">
+      <c r="J40">
         <f>IF(ShiftSystem!B7=4,3,ShiftSystem!B7)</f>
         <v>2</v>
       </c>
-      <c r="C40">
+      <c r="K40">
         <f>IF(ShiftSystem!C7=4,3,ShiftSystem!C7)</f>
         <v>3</v>
       </c>
-      <c r="D40">
+      <c r="L40">
         <f>IF(ShiftSystem!D7=4,3,ShiftSystem!D7)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I41">
         <v>7</v>
       </c>
-      <c r="B41">
+      <c r="J41">
         <f>IF(ShiftSystem!B8=4,3,ShiftSystem!B8)</f>
         <v>2</v>
       </c>
-      <c r="C41">
+      <c r="K41">
         <f>IF(ShiftSystem!C8=4,3,ShiftSystem!C8)</f>
         <v>3</v>
       </c>
-      <c r="D41">
+      <c r="L41">
         <f>IF(ShiftSystem!D8=4,3,ShiftSystem!D8)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I42">
         <v>8</v>
       </c>
-      <c r="B42">
+      <c r="J42">
         <f>IF(ShiftSystem!B9=4,3,ShiftSystem!B9)</f>
         <v>2</v>
       </c>
-      <c r="C42">
+      <c r="K42">
         <f>IF(ShiftSystem!C9=4,3,ShiftSystem!C9)</f>
         <v>3</v>
       </c>
-      <c r="D42">
+      <c r="L42">
         <f>IF(ShiftSystem!D9=4,3,ShiftSystem!D9)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I43">
         <v>9</v>
       </c>
-      <c r="B43">
+      <c r="J43">
         <f>IF(ShiftSystem!B10=4,3,ShiftSystem!B10)</f>
         <v>2</v>
       </c>
-      <c r="C43">
+      <c r="K43">
         <f>IF(ShiftSystem!C10=4,3,ShiftSystem!C10)</f>
         <v>3</v>
       </c>
-      <c r="D43">
+      <c r="L43">
         <f>IF(ShiftSystem!D10=4,3,ShiftSystem!D10)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I44">
         <v>10</v>
       </c>
-      <c r="B44">
+      <c r="J44">
         <f>IF(ShiftSystem!B11=4,3,ShiftSystem!B11)</f>
         <v>2</v>
       </c>
-      <c r="C44">
+      <c r="K44">
         <f>IF(ShiftSystem!C11=4,3,ShiftSystem!C11)</f>
         <v>3</v>
       </c>
-      <c r="D44">
+      <c r="L44">
         <f>IF(ShiftSystem!D11=4,3,ShiftSystem!D11)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I45">
         <v>11</v>
       </c>
-      <c r="B45">
+      <c r="J45">
         <f>IF(ShiftSystem!B12=4,3,ShiftSystem!B12)</f>
         <v>2</v>
       </c>
-      <c r="C45">
+      <c r="K45">
         <f>IF(ShiftSystem!C12=4,3,ShiftSystem!C12)</f>
         <v>3</v>
       </c>
-      <c r="D45">
+      <c r="L45">
         <f>IF(ShiftSystem!D12=4,3,ShiftSystem!D12)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I46">
         <v>12</v>
       </c>
-      <c r="B46">
+      <c r="J46">
         <f>IF(ShiftSystem!B13=4,3,ShiftSystem!B13)</f>
         <v>2</v>
       </c>
-      <c r="C46">
+      <c r="K46">
         <f>IF(ShiftSystem!C13=4,3,ShiftSystem!C13)</f>
         <v>3</v>
       </c>
-      <c r="D46">
+      <c r="L46">
         <f>IF(ShiftSystem!D13=4,3,ShiftSystem!D13)</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E9F73A-364A-4672-840A-39823769D65A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6F4CA4-222A-4861-8125-96B8A8E0E636}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6F4CA4-222A-4861-8125-96B8A8E0E636}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5941,191 +5882,185 @@
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>10</v>
+      </c>
+      <c r="C2" s="16">
+        <v>20</v>
+      </c>
+      <c r="D2" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>10</v>
+      </c>
+      <c r="C3" s="16">
+        <v>20</v>
+      </c>
+      <c r="D3" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>10</v>
+      </c>
+      <c r="C4" s="16">
+        <v>20</v>
+      </c>
+      <c r="D4" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>4</v>
+      </c>
+      <c r="B5" s="15">
+        <v>10</v>
+      </c>
+      <c r="C5" s="16">
+        <v>20</v>
+      </c>
+      <c r="D5" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>10</v>
+      </c>
+      <c r="C6" s="16">
+        <v>20</v>
+      </c>
+      <c r="D6" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="B7" s="15">
+        <v>10</v>
+      </c>
+      <c r="C7" s="16">
+        <v>20</v>
+      </c>
+      <c r="D7" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="B8" s="15">
+        <v>10</v>
+      </c>
+      <c r="C8" s="16">
+        <v>20</v>
+      </c>
+      <c r="D8" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17">
+      <c r="B9" s="15">
         <v>10</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C9" s="16">
         <v>20</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D9" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15">
         <v>10</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C10" s="16">
         <v>20</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D10" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="C4" s="18">
+      <c r="B11" s="15">
+        <v>10</v>
+      </c>
+      <c r="C11" s="16">
         <v>20</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D11" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15">
         <v>10</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C12" s="16">
         <v>20</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D12" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="23">
         <v>10</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C13" s="24">
         <v>20</v>
       </c>
-      <c r="D6" s="23">
-        <v>20</v>
-      </c>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17">
-        <v>10</v>
-      </c>
-      <c r="C7" s="18">
-        <v>20</v>
-      </c>
-      <c r="D7" s="23">
-        <v>20</v>
-      </c>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
-        <v>7</v>
-      </c>
-      <c r="B8" s="17">
-        <v>10</v>
-      </c>
-      <c r="C8" s="18">
-        <v>20</v>
-      </c>
-      <c r="D8" s="23">
-        <v>20</v>
-      </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17">
-        <v>10</v>
-      </c>
-      <c r="C9" s="18">
-        <v>20</v>
-      </c>
-      <c r="D9" s="23">
-        <v>20</v>
-      </c>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>9</v>
-      </c>
-      <c r="B10" s="17">
-        <v>10</v>
-      </c>
-      <c r="C10" s="18">
-        <v>20</v>
-      </c>
-      <c r="D10" s="23">
-        <v>20</v>
-      </c>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
-        <v>10</v>
-      </c>
-      <c r="B11" s="17">
-        <v>10</v>
-      </c>
-      <c r="C11" s="18">
-        <v>20</v>
-      </c>
-      <c r="D11" s="23">
-        <v>20</v>
-      </c>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
-        <v>11</v>
-      </c>
-      <c r="B12" s="17">
-        <v>10</v>
-      </c>
-      <c r="C12" s="18">
-        <v>20</v>
-      </c>
-      <c r="D12" s="23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
-        <v>12</v>
-      </c>
-      <c r="B13" s="28">
-        <v>10</v>
-      </c>
-      <c r="C13" s="29">
-        <v>20</v>
-      </c>
-      <c r="D13" s="30">
+      <c r="D13" s="25">
         <v>20</v>
       </c>
     </row>
